--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/For_Students_T09_ANL252.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/For_Students_T09_ANL252.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF9C36CC-50FF-479D-B5E1-C29E68A15CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4801E2-E9D2-4C25-B11D-4421C01D1701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="944" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23580" yWindow="108" windowWidth="19860" windowHeight="11604" tabRatio="944" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="199">
   <si>
     <t>Full name</t>
   </si>
@@ -619,6 +619,24 @@
   </si>
   <si>
     <t>99165198703@zoomcrc.com</t>
+  </si>
+  <si>
+    <t>Pct</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>present but not really particpating</t>
+  </si>
+  <si>
+    <t>Kris</t>
+  </si>
+  <si>
+    <t>Felicia</t>
+  </si>
+  <si>
+    <t>Timothy</t>
   </si>
 </sst>
 </file>
@@ -1408,7 +1426,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1500,6 +1518,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2070,7 +2091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6A3339-65FA-46B7-AF30-B9BE677A6B19}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2875,10 +2896,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14CFE6-98F2-4C2C-AE37-793847E6E119}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,7 +2913,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2911,8 +2932,11 @@
       <c r="F1" s="30" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="25" t="s">
         <v>41</v>
       </c>
@@ -2929,7 +2953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>49</v>
       </c>
@@ -2943,8 +2967,11 @@
         <v>1</v>
       </c>
       <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>53</v>
       </c>
@@ -2958,8 +2985,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>64</v>
       </c>
@@ -2974,7 +3004,7 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>36</v>
       </c>
@@ -2991,7 +3021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>35</v>
       </c>
@@ -3006,7 +3036,7 @@
       </c>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
@@ -3020,8 +3050,11 @@
         <v>2</v>
       </c>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>63</v>
       </c>
@@ -3036,7 +3069,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
         <v>48</v>
       </c>
@@ -3052,8 +3085,11 @@
       <c r="F10" s="27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
@@ -3067,8 +3103,11 @@
         <v>3</v>
       </c>
       <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>55</v>
       </c>
@@ -3082,8 +3121,11 @@
         <v>3</v>
       </c>
       <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>56</v>
       </c>
@@ -3098,7 +3140,7 @@
       </c>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="25" t="s">
         <v>43</v>
       </c>
@@ -3115,7 +3157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>47</v>
       </c>
@@ -3129,8 +3171,11 @@
         <v>4</v>
       </c>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>50</v>
       </c>
@@ -3144,8 +3189,11 @@
         <v>4</v>
       </c>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>65</v>
       </c>
@@ -3160,7 +3208,7 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="25" t="s">
         <v>58</v>
       </c>
@@ -3177,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
@@ -3192,7 +3240,7 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -3207,7 +3255,7 @@
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="2:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>61</v>
       </c>
@@ -3222,7 +3270,7 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="25" t="s">
         <v>62</v>
       </c>
@@ -3239,7 +3287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
@@ -3254,7 +3302,7 @@
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>39</v>
       </c>
@@ -3268,8 +3316,11 @@
         <v>6</v>
       </c>
       <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>54</v>
       </c>
@@ -3284,7 +3335,7 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="25" t="s">
         <v>66</v>
       </c>
@@ -3301,7 +3352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>31</v>
       </c>
@@ -3316,7 +3367,7 @@
       </c>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>40</v>
       </c>
@@ -3331,7 +3382,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="2:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>57</v>
       </c>
@@ -3345,8 +3396,11 @@
         <v>7</v>
       </c>
       <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
         <v>60</v>
       </c>
@@ -3362,8 +3416,11 @@
       <c r="F30" s="27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>38</v>
       </c>
@@ -3378,7 +3435,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>42</v>
       </c>
@@ -3393,7 +3450,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="2:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>52</v>
       </c>
@@ -3407,8 +3464,11 @@
         <v>8</v>
       </c>
       <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
         <v>51</v>
       </c>
@@ -3425,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>45</v>
       </c>
@@ -3440,7 +3500,7 @@
       </c>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="2:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>46</v>
       </c>
@@ -3454,8 +3514,11 @@
         <v>9</v>
       </c>
       <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>59</v>
       </c>
@@ -3472,7 +3535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
         <v>32</v>
       </c>
@@ -3487,7 +3550,7 @@
       </c>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="2:6" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:7" s="31" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>34</v>
       </c>
@@ -3501,9 +3564,27 @@
         <v>10</v>
       </c>
       <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:6" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G39" s="31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F42">
     <sortCondition ref="E2:E42"/>

--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/For_Students_T09_ANL252.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/For_Students_T09_ANL252.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4801E2-E9D2-4C25-B11D-4421C01D1701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3106C895-1B66-4009-BFD7-67E96993927E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23580" yWindow="108" windowWidth="19860" windowHeight="11604" tabRatio="944" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="975" windowWidth="19860" windowHeight="13575" tabRatio="944" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -39,8 +39,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Munish Kumar</author>
+  </authors>
+  <commentList>
+    <comment ref="B29" authorId="0" shapeId="0" xr:uid="{15CE1586-8B9C-40EA-836F-82A492E9EDB7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Munish Kumar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MUHAMMAD KHIDAYATULLAH BIN JAMALDIN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="196">
   <si>
     <t>Full name</t>
   </si>
@@ -628,22 +662,13 @@
   </si>
   <si>
     <t>present but not really particpating</t>
-  </si>
-  <si>
-    <t>Kris</t>
-  </si>
-  <si>
-    <t>Felicia</t>
-  </si>
-  <si>
-    <t>Timothy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,6 +819,19 @@
       <sz val="13.5"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1633,6 +1671,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2895,11 +2937,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14CFE6-98F2-4C2C-AE37-793847E6E119}">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14CFE6-98F2-4C2C-AE37-793847E6E119}">
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3570,27 +3612,13 @@
     </row>
     <row r="40" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F42">
     <sortCondition ref="E2:E42"/>
     <sortCondition ref="F2:F42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/For_Students_T09_ANL252.xlsx
+++ b/SuSS/2022_Sem2_ANL252_Python_4_Biz/3_Lecturer/Lecture_0_Admin/For_Students_T09_ANL252.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem2_ANL252_Python_4_Biz\3_Lecturer\Lecture_0_Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3106C895-1B66-4009-BFD7-67E96993927E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF79FB9D-9AFC-488B-B8A2-34A7CA8ACED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="975" windowWidth="19860" windowHeight="13575" tabRatio="944" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="944" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seminar_Schedule" sheetId="2" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="196">
   <si>
     <t>Full name</t>
   </si>
@@ -1673,10 +1673,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2940,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B14CFE6-98F2-4C2C-AE37-793847E6E119}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,7 +3401,7 @@
         <v>72</v>
       </c>
       <c r="E27" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F27" s="7"/>
     </row>
@@ -3571,11 +3567,9 @@
         <v>128</v>
       </c>
       <c r="E37" s="3">
-        <v>10</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" spans="2:7" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
@@ -3603,7 +3597,7 @@
         <v>78</v>
       </c>
       <c r="E39" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="31" t="s">
